--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
@@ -546,10 +546,10 @@
         <v>0.163767</v>
       </c>
       <c r="I2">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J2">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N2">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O2">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P2">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q2">
-        <v>0.110367548899</v>
+        <v>0.04417476532866667</v>
       </c>
       <c r="R2">
-        <v>0.9933079400909999</v>
+        <v>0.397572887958</v>
       </c>
       <c r="S2">
-        <v>0.1695612484707067</v>
+        <v>0.1896834002826433</v>
       </c>
       <c r="T2">
-        <v>0.2343449251695239</v>
+        <v>0.2169466869575486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.163767</v>
       </c>
       <c r="I3">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J3">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>0.803997</v>
       </c>
       <c r="O3">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P3">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q3">
         <v>0.014629797411</v>
@@ -638,10 +638,10 @@
         <v>0.131668176699</v>
       </c>
       <c r="S3">
-        <v>0.02247623272084054</v>
+        <v>0.06281934262056782</v>
       </c>
       <c r="T3">
-        <v>0.0310636488145942</v>
+        <v>0.0718483970557036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.163767</v>
       </c>
       <c r="I4">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J4">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N4">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O4">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P4">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q4">
-        <v>0.0333320434</v>
+        <v>0.04034811282133333</v>
       </c>
       <c r="R4">
-        <v>0.2999883906</v>
+        <v>0.363133015392</v>
       </c>
       <c r="S4">
-        <v>0.0512091004046479</v>
+        <v>0.1732520179336791</v>
       </c>
       <c r="T4">
-        <v>0.07077438336035291</v>
+        <v>0.1981536140928235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.163767</v>
       </c>
       <c r="I5">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J5">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N5">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O5">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P5">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q5">
-        <v>0.099314477357</v>
+        <v>0.0400958661505</v>
       </c>
       <c r="R5">
-        <v>0.595886864142</v>
+        <v>0.240575196903</v>
       </c>
       <c r="S5">
-        <v>0.1525800558212925</v>
+        <v>0.1721688880997648</v>
       </c>
       <c r="T5">
-        <v>0.1405838581880923</v>
+        <v>0.131276536990066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.163767</v>
       </c>
       <c r="I6">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J6">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N6">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O6">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P6">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q6">
-        <v>0.03420865175833333</v>
+        <v>0.05179025836266666</v>
       </c>
       <c r="R6">
-        <v>0.307877865825</v>
+        <v>0.466112325264</v>
       </c>
       <c r="S6">
-        <v>0.05255586228476251</v>
+        <v>0.2223838029394626</v>
       </c>
       <c r="T6">
-        <v>0.072635697869789</v>
+        <v>0.2543471342713556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H7">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I7">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J7">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N7">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O7">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P7">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q7">
-        <v>0.1357784290825</v>
+        <v>0.009676708564</v>
       </c>
       <c r="R7">
-        <v>0.814670574495</v>
+        <v>0.058060251384</v>
       </c>
       <c r="S7">
-        <v>0.208600808664227</v>
+        <v>0.04155112019967116</v>
       </c>
       <c r="T7">
-        <v>0.1922001295996422</v>
+        <v>0.03168218850731058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H8">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I8">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J8">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>0.803997</v>
       </c>
       <c r="O8">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P8">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q8">
-        <v>0.0179981428425</v>
+        <v>0.003204732042</v>
       </c>
       <c r="R8">
-        <v>0.107988857055</v>
+        <v>0.019228392252</v>
       </c>
       <c r="S8">
-        <v>0.02765113116103701</v>
+        <v>0.01376089869857938</v>
       </c>
       <c r="T8">
-        <v>0.0254771351403654</v>
+        <v>0.01049250620689276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H9">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I9">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J9">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N9">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O9">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P9">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q9">
-        <v>0.0410063695</v>
+        <v>0.008838460736000002</v>
       </c>
       <c r="R9">
-        <v>0.246038217</v>
+        <v>0.05303076441600001</v>
       </c>
       <c r="S9">
-        <v>0.06299941674009676</v>
+        <v>0.03795174175110251</v>
       </c>
       <c r="T9">
-        <v>0.05804625657822273</v>
+        <v>0.02893770927380954</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H10">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I10">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J10">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N10">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O10">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P10">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q10">
-        <v>0.1221805127975</v>
+        <v>0.008783204810999999</v>
       </c>
       <c r="R10">
-        <v>0.4887220511900001</v>
+        <v>0.035132819244</v>
       </c>
       <c r="S10">
-        <v>0.1877098884174184</v>
+        <v>0.03771447661428103</v>
       </c>
       <c r="T10">
-        <v>0.1153011346152376</v>
+        <v>0.01917119846278199</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H11">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I11">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J11">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N11">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O11">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P11">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q11">
-        <v>0.04208480702083334</v>
+        <v>0.011344921312</v>
       </c>
       <c r="R11">
-        <v>0.252508842125</v>
+        <v>0.06806952787199999</v>
       </c>
       <c r="S11">
-        <v>0.06465625531497075</v>
+        <v>0.0487143108602483</v>
       </c>
       <c r="T11">
-        <v>0.05957283066417966</v>
+        <v>0.0371440281817078</v>
       </c>
     </row>
   </sheetData>
